--- a/filebrowser/client/files/new.xlsx
+++ b/filebrowser/client/files/new.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <workbookPr showInkAnnotation="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alipputra/sesko/soyut/browser/filebrowser/client/files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -22,11 +27,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -57,13 +61,10 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -112,7 +113,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -336,7 +337,8 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/filebrowser/client/files/new.xlsx
+++ b/filebrowser/client/files/new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
